--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/销售业绩.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/销售业绩.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A513F24-334B-403B-BB4C-9FDD977E5E94}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FDB7E878-0667-469D-87D4-2738066CD74F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,18 +158,6 @@
     <t>易瑞</t>
   </si>
   <si>
-    <t>孟庆宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭瑞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,18 +186,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>李欣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张凯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵孟印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>YRX20180112-FS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -243,23 +219,47 @@
   </si>
   <si>
     <t>油田设备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨晓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白锦宝</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>项目开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘嫩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘先生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,7 +819,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>18</v>
@@ -897,16 +897,16 @@
         <v>35</v>
       </c>
       <c r="U2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -914,10 +914,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>24</v>
@@ -929,25 +929,25 @@
         <v>35</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N3" s="18">
         <v>1</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3" s="19">
         <v>38011</v>
@@ -956,7 +956,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S3" s="15">
         <v>43125</v>
@@ -965,16 +965,16 @@
         <v>35</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -982,42 +982,42 @@
         <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N4" s="18">
         <v>2</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P4" s="19">
         <v>6100</v>
@@ -1026,25 +1026,25 @@
         <v>0.14380000000000001</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S4" s="21">
         <v>43165</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="U4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="W4" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/销售业绩.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/销售业绩.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FDB7E878-0667-469D-87D4-2738066CD74F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3F4AAA8-C964-4A59-95D9-CE24F3159E82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>序号</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>印尼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>亚太</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,6 +154,18 @@
     <t>易瑞</t>
   </si>
   <si>
+    <t>孟庆宇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭瑞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,80 +194,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>YRX20180112-FS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>李欣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵孟印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDFSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缅甸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM1402</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>捞砂绳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石油专用工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货后70天100%T/T付款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油田设备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵思</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘嫩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘先生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行分公司必须为全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为整数数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须带%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -385,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,9 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,6 +742,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -819,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>18</v>
@@ -861,25 +843,25 @@
         <v>27</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="N2" s="12">
         <v>30</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="13">
         <v>39750</v>
@@ -888,25 +870,25 @@
         <v>3.44E-2</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="15">
         <v>43118</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="V2" s="10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -914,40 +896,44 @@
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="18">
         <v>1</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" s="19">
         <v>38011</v>
@@ -956,95 +942,45 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S3" s="15">
         <v>43125</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="P5" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="18">
-        <v>2</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="19">
-        <v>6100</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0.14380000000000001</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="21">
-        <v>43165</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="Q5" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>36</v>
+      <c r="S5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
